--- a/창업/Ai-Eng+캐릭터+일러스트+견적서_디자인탬버.xlsx
+++ b/창업/Ai-Eng+캐릭터+일러스트+견적서_디자인탬버.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Timbre\Outsourcing Projects\S-Craft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cucud\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E123DA-367E-4AD9-9BF4-FC953B079657}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="견적서" sheetId="3" r:id="rId1"/>
@@ -17,22 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">견적서!$A$1:$L$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
-    <t xml:space="preserve"> 작성일자 : 20년 1월 31일
- 작성자 : </t>
-  </si>
-  <si>
     <t>상 호</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-Eng 카드캐릭터     일러스트 </t>
   </si>
   <si>
     <t xml:space="preserve">공
@@ -180,20 +182,29 @@
   <si>
     <t>유효기간은 견적발행일로부터 15일 입니다.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 작성일자 : 2020년1월31일
+ 작성자 : 김하원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-Eng 카드캐릭터     일러스트 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -208,7 +219,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -492,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -500,10 +511,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -512,13 +523,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -527,10 +538,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,13 +550,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,19 +580,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,10 +601,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,9 +730,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,97 +742,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +754,7 @@
     <cellStyle name="통화" xfId="5" builtinId="4"/>
     <cellStyle name="통화 [0]" xfId="1" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_Sheet1" xfId="2"/>
+    <cellStyle name="표준_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,7 +792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -889,6 +906,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -924,6 +958,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1099,264 +1150,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.8984375" style="1"/>
+    <col min="13" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="6.75" customHeight="1"/>
-    <row r="2" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A2" s="28" t="s">
+    <row r="1" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="59"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="5" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51">
+        <v>1100000</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1">
-      <c r="A4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="41.25" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1">
-      <c r="A7" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="76">
-        <v>1100000</v>
-      </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
+      <c r="L7" s="53"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51">
+        <v>110000</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="H8" s="72"/>
+      <c r="I8" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="J8" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="76">
-        <v>110000</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="K8" s="54"/>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51">
+        <v>1210000</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="57"/>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="76">
-        <v>1210000</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="16" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="57"/>
-    </row>
-    <row r="10" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A10" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="F11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="17" t="s">
+      <c r="G11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="H11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="50"/>
+        <v>6</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="48"/>
       <c r="L11" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="15">
@@ -1365,29 +1416,29 @@
       <c r="I12" s="23">
         <v>300000</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="33">
         <v>30000</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="23">
         <f t="shared" ref="L12:L19" si="0">SUM(I12:K12)</f>
         <v>330000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1">
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="15">
@@ -1396,29 +1447,29 @@
       <c r="I13" s="23">
         <v>300000</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="33">
         <v>30000</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="23">
         <f t="shared" si="0"/>
         <v>330000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>3</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="6">
@@ -1427,29 +1478,29 @@
       <c r="I14" s="23">
         <v>0</v>
       </c>
-      <c r="J14" s="59">
-        <v>0</v>
-      </c>
-      <c r="K14" s="60"/>
+      <c r="J14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="34"/>
       <c r="L14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1">
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>4</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="6">
@@ -1458,26 +1509,26 @@
       <c r="I15" s="23">
         <v>100000</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="33">
         <v>10000</v>
       </c>
-      <c r="K15" s="60"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="23">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>5</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21"/>
@@ -1487,29 +1538,29 @@
       <c r="I16" s="23">
         <v>200000</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="33">
         <v>20000</v>
       </c>
-      <c r="K16" s="60"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="23">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19.5" customHeight="1">
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>6</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="6">
@@ -1518,346 +1569,346 @@
       <c r="I17" s="23">
         <v>200000</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="33">
         <v>20000</v>
       </c>
-      <c r="K17" s="60"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="23">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1">
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>7</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="67">
+      <c r="J18" s="31">
         <f t="shared" ref="J18:J28" si="1">I18*10%</f>
         <v>0</v>
       </c>
-      <c r="K18" s="68"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1">
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>8</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="67">
+      <c r="J19" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="68"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1">
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>9</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="6"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="67">
+      <c r="J20" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K20" s="68"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="11">
         <f t="shared" ref="L20:L29" si="2">SUM(I20:K20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19.5" customHeight="1">
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>10</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="67">
+      <c r="J21" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K21" s="68"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19.5" customHeight="1">
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>11</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="67">
+      <c r="J22" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22" s="68"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1">
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>12</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="67">
+      <c r="J23" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19.5" customHeight="1">
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>13</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="67">
+      <c r="J24" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="68"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>14</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="67">
+      <c r="J25" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="68"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19.5" customHeight="1">
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>15</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="67">
+      <c r="J26" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K26" s="68"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19.5" customHeight="1">
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>16</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="67">
+      <c r="J27" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K27" s="68"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19.5" customHeight="1">
+    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>17</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="67">
+      <c r="J28" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28" s="68"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="19.5" customHeight="1">
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>18</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="6"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
       <c r="L29" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A30" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
+    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="73">
+      <c r="I30" s="28">
         <f>SUM(I12:I29)</f>
         <v>1100000</v>
       </c>
-      <c r="J30" s="74">
+      <c r="J30" s="37">
         <f>SUM(J12:K29)</f>
         <v>110000</v>
       </c>
-      <c r="K30" s="75"/>
-      <c r="L30" s="73">
+      <c r="K30" s="38"/>
+      <c r="L30" s="28">
         <f>SUM(L12:L29)</f>
         <v>1210000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-    </row>
-    <row r="34" spans="1:12">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -1871,13 +1922,62 @@
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="A31:L33"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J29:K29"/>
@@ -1894,59 +1994,10 @@
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.31496062992125984" bottom="0.11811023622047245" header="7.874015748031496E-2" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
